--- a/Table/Table_xls/客户端提示信息表/程序内字符串.xlsx
+++ b/Table/Table_xls/客户端提示信息表/程序内字符串.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1595">
   <si>
     <t>ID</t>
   </si>
@@ -4937,7 +4937,13 @@
     <t>已准备</t>
   </si>
   <si>
-    <t>重铸</t>
+    <t>装备重铸</t>
+  </si>
+  <si>
+    <t>装备点化</t>
+  </si>
+  <si>
+    <t>套装点化</t>
   </si>
 </sst>
 </file>
@@ -4946,9 +4952,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -4976,12 +4982,145 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4989,8 +5128,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5004,28 +5166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5039,112 +5182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5155,47 +5197,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5206,8 +5213,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -5218,8 +5225,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5245,120 +5251,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5371,7 +5263,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5383,25 +5341,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5413,55 +5407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5473,13 +5425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5509,13 +5467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5526,84 +5532,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5633,11 +5561,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5647,6 +5603,41 @@
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5669,17 +5660,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5699,6 +5696,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5710,17 +5722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5729,1141 +5735,1141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6890,226 +6896,226 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7121,7 +7127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="359" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="360" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7131,7 +7137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="359" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="360" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -7160,21 +7166,21 @@
   <cellStyles count="462">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="输入" xfId="2" builtinId="20"/>
-    <cellStyle name="汇总 6" xfId="3"/>
-    <cellStyle name="60% - 强调文字颜色 1 11" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="6"/>
-    <cellStyle name="链接单元格 5" xfId="7"/>
-    <cellStyle name="标题 3 11" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="标题 3 11" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="链接单元格 5" xfId="6"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="汇总 6" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 1 11" xfId="9"/>
     <cellStyle name="货币" xfId="10" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="11" builtinId="6"/>
-    <cellStyle name="差" xfId="12" builtinId="27"/>
-    <cellStyle name="强调文字颜色 3 11" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14" builtinId="39"/>
-    <cellStyle name="强调文字颜色 1 8" xfId="15"/>
-    <cellStyle name="计算 2" xfId="16"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
+    <cellStyle name="强调文字颜色 1 8" xfId="13"/>
+    <cellStyle name="计算 2" xfId="14"/>
+    <cellStyle name="差" xfId="15" builtinId="27"/>
+    <cellStyle name="强调文字颜色 3 11" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="18" builtinId="40"/>
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
@@ -7184,19 +7190,19 @@
     <cellStyle name="注释" xfId="23" builtinId="10"/>
     <cellStyle name="60% - 强调文字颜色 2 3" xfId="24"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="25"/>
-    <cellStyle name="警告文本" xfId="26" builtinId="11"/>
-    <cellStyle name="注释 5" xfId="27"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="26" builtinId="36"/>
+    <cellStyle name="40% - 强调文字颜色 3 9" xfId="27"/>
     <cellStyle name="标题 4" xfId="28" builtinId="19"/>
     <cellStyle name="差 9" xfId="29"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="30" builtinId="36"/>
-    <cellStyle name="40% - 强调文字颜色 3 9" xfId="31"/>
-    <cellStyle name="40% - 强调文字颜色 3 10" xfId="32"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="注释 5" xfId="31"/>
+    <cellStyle name="60% - 强调文字颜色 6 8" xfId="32"/>
     <cellStyle name="60% - 强调文字颜色 4 11" xfId="33"/>
     <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="60% - 强调文字颜色 6 8" xfId="35"/>
+    <cellStyle name="40% - 强调文字颜色 3 10" xfId="35"/>
     <cellStyle name="解释性文本" xfId="36" builtinId="53"/>
-    <cellStyle name="差 6" xfId="37"/>
-    <cellStyle name="解释性文本 9" xfId="38"/>
+    <cellStyle name="解释性文本 9" xfId="37"/>
+    <cellStyle name="差 6" xfId="38"/>
     <cellStyle name="标题 1" xfId="39" builtinId="16"/>
     <cellStyle name="差 7" xfId="40"/>
     <cellStyle name="标题 2" xfId="41" builtinId="17"/>
@@ -7209,69 +7215,69 @@
     <cellStyle name="计算" xfId="48" builtinId="22"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
     <cellStyle name="检查单元格" xfId="50" builtinId="23"/>
-    <cellStyle name="链接单元格 8" xfId="51"/>
-    <cellStyle name="输出 6" xfId="52"/>
+    <cellStyle name="输出 6" xfId="51"/>
+    <cellStyle name="链接单元格 8" xfId="52"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="53" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="54" builtinId="33"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="55"/>
-    <cellStyle name="标题 2 11" xfId="56"/>
+    <cellStyle name="标题 2 11" xfId="55"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="56"/>
     <cellStyle name="链接单元格" xfId="57" builtinId="24"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="58"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="适中 8" xfId="62"/>
+    <cellStyle name="适中 8" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
-    <cellStyle name="链接单元格 7" xfId="64"/>
-    <cellStyle name="输出 5" xfId="65"/>
+    <cellStyle name="输出 5" xfId="64"/>
+    <cellStyle name="链接单元格 7" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="66" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="67" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="69" builtinId="30"/>
     <cellStyle name="强调文字颜色 1 6" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
-    <cellStyle name="链接单元格 4" xfId="72"/>
-    <cellStyle name="输出 2" xfId="73"/>
+    <cellStyle name="输出 2" xfId="72"/>
+    <cellStyle name="链接单元格 4" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="74" builtinId="34"/>
     <cellStyle name="强调文字颜色 1 7" xfId="75"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="76" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="77" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="78" builtinId="41"/>
-    <cellStyle name="链接单元格 6" xfId="79"/>
-    <cellStyle name="输出 4" xfId="80"/>
+    <cellStyle name="输出 4" xfId="79"/>
+    <cellStyle name="链接单元格 6" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="81" builtinId="42"/>
-    <cellStyle name="计算 3" xfId="82"/>
-    <cellStyle name="强调文字颜色 1 9" xfId="83"/>
+    <cellStyle name="强调文字颜色 1 9" xfId="82"/>
+    <cellStyle name="计算 3" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="84" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="85" builtinId="45"/>
     <cellStyle name="计算 4" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="87" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="88" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="89" builtinId="49"/>
-    <cellStyle name="计算 5" xfId="90"/>
-    <cellStyle name="适中 2" xfId="91"/>
+    <cellStyle name="适中 2" xfId="90"/>
+    <cellStyle name="计算 5" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="92" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="93" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 10" xfId="94"/>
+    <cellStyle name="60% - 强调文字颜色 6 9" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 3 11" xfId="95"/>
-    <cellStyle name="60% - 强调文字颜色 6 9" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="97"/>
-    <cellStyle name="好 2" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 2 10" xfId="96"/>
+    <cellStyle name="好 2" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 2 11" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="102"/>
-    <cellStyle name="好 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="104"/>
-    <cellStyle name="好 4" xfId="105"/>
+    <cellStyle name="好 3" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="103"/>
+    <cellStyle name="好 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="105"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 8" xfId="107"/>
-    <cellStyle name="好 5" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 9" xfId="109"/>
-    <cellStyle name="好 6" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 10" xfId="111"/>
+    <cellStyle name="好 5" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 8" xfId="108"/>
+    <cellStyle name="好 6" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 9" xfId="110"/>
+    <cellStyle name="60% - 强调文字颜色 1 9" xfId="111"/>
     <cellStyle name="40% - 强调文字颜色 2 11" xfId="112"/>
-    <cellStyle name="60% - 强调文字颜色 1 9" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 1 10" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="115"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="116"/>
@@ -7279,112 +7285,112 @@
     <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 8" xfId="119"/>
     <cellStyle name="20% - 强调文字颜色 2 9" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 3 10" xfId="121"/>
+    <cellStyle name="40% - 强调文字颜色 4 11" xfId="121"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="122"/>
-    <cellStyle name="40% - 强调文字颜色 4 11" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 11" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 3 10" xfId="123"/>
+    <cellStyle name="输出 10" xfId="124"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="125"/>
-    <cellStyle name="输出 10" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="127"/>
-    <cellStyle name="适中 7" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 3 11" xfId="126"/>
+    <cellStyle name="适中 7" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="128"/>
+    <cellStyle name="适中 9" xfId="129"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="130"/>
-    <cellStyle name="适中 9" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="132"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="134"/>
-    <cellStyle name="60% - 强调文字颜色 1 4" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="136"/>
-    <cellStyle name="60% - 强调文字颜色 1 5" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 8" xfId="138"/>
-    <cellStyle name="60% - 强调文字颜色 1 6" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 9" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="131"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="133"/>
+    <cellStyle name="60% - 强调文字颜色 1 4" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="135"/>
+    <cellStyle name="60% - 强调文字颜色 1 5" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="137"/>
+    <cellStyle name="60% - 强调文字颜色 1 6" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 8" xfId="139"/>
+    <cellStyle name="60% - 强调文字颜色 3 10" xfId="140"/>
     <cellStyle name="60% - 强调文字颜色 1 7" xfId="141"/>
-    <cellStyle name="60% - 强调文字颜色 3 10" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 4 10" xfId="143"/>
-    <cellStyle name="40% - 强调文字颜色 5 11" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 9" xfId="142"/>
+    <cellStyle name="40% - 强调文字颜色 5 11" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 4 10" xfId="144"/>
     <cellStyle name="20% - 强调文字颜色 4 11" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="146"/>
-    <cellStyle name="常规 3" xfId="147"/>
-    <cellStyle name="好 11" xfId="148"/>
-    <cellStyle name="注释 10" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
-    <cellStyle name="注释 11" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="152"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="154"/>
-    <cellStyle name="60% - 强调文字颜色 2 4" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="156"/>
-    <cellStyle name="60% - 强调文字颜色 2 5" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 8" xfId="158"/>
-    <cellStyle name="60% - 强调文字颜色 2 6" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 9" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 2 7" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 5 10" xfId="162"/>
-    <cellStyle name="40% - 强调文字颜色 6 11" xfId="163"/>
-    <cellStyle name="计算 7" xfId="164"/>
-    <cellStyle name="适中 4" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 5 11" xfId="166"/>
+    <cellStyle name="注释 10" xfId="146"/>
+    <cellStyle name="好 11" xfId="147"/>
+    <cellStyle name="常规 3" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="149"/>
+    <cellStyle name="注释 11" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="151"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="153"/>
+    <cellStyle name="60% - 强调文字颜色 2 4" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="155"/>
+    <cellStyle name="60% - 强调文字颜色 2 5" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="157"/>
+    <cellStyle name="60% - 强调文字颜色 2 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 8" xfId="159"/>
+    <cellStyle name="60% - 强调文字颜色 2 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 4 9" xfId="161"/>
+    <cellStyle name="适中 4" xfId="162"/>
+    <cellStyle name="计算 7" xfId="163"/>
+    <cellStyle name="40% - 强调文字颜色 6 11" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 5 10" xfId="165"/>
+    <cellStyle name="适中 5" xfId="166"/>
     <cellStyle name="计算 8" xfId="167"/>
-    <cellStyle name="适中 5" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 5 11" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="171"/>
+    <cellStyle name="强调文字颜色 4 10" xfId="171"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="172"/>
-    <cellStyle name="强调文字颜色 4 10" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="174"/>
-    <cellStyle name="60% - 强调文字颜色 3 3" xfId="175"/>
-    <cellStyle name="汇总 10" xfId="176"/>
-    <cellStyle name="强调文字颜色 4 11" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="173"/>
+    <cellStyle name="强调文字颜色 4 11" xfId="174"/>
+    <cellStyle name="汇总 10" xfId="175"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="177"/>
+    <cellStyle name="汇总 11" xfId="178"/>
     <cellStyle name="60% - 强调文字颜色 3 4" xfId="179"/>
-    <cellStyle name="汇总 11" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 3 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 8" xfId="183"/>
-    <cellStyle name="60% - 强调文字颜色 3 6" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 9" xfId="185"/>
-    <cellStyle name="60% - 强调文字颜色 3 7" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="180"/>
+    <cellStyle name="60% - 强调文字颜色 3 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="182"/>
+    <cellStyle name="60% - 强调文字颜色 3 6" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 8" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 3 7" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 9" xfId="186"/>
     <cellStyle name="20% - 强调文字颜色 6 10" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 11" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="189"/>
-    <cellStyle name="标题 4 11" xfId="190"/>
+    <cellStyle name="标题 4 11" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="192"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="196"/>
-    <cellStyle name="60% - 强调文字颜色 4 4" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 4 5" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 8" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 6" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 9" xfId="202"/>
-    <cellStyle name="60% - 强调文字颜色 4 7" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 1 10" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 2 11" xfId="205"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="193"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="195"/>
+    <cellStyle name="60% - 强调文字颜色 4 4" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="197"/>
+    <cellStyle name="60% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 4 6" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 8" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 7" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 9" xfId="203"/>
+    <cellStyle name="60% - 强调文字颜色 2 11" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 1 10" xfId="205"/>
     <cellStyle name="40% - 强调文字颜色 1 11" xfId="206"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="207"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="209"/>
-    <cellStyle name="适中 10" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="211"/>
-    <cellStyle name="适中 11" xfId="212"/>
+    <cellStyle name="适中 10" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="210"/>
+    <cellStyle name="适中 11" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="212"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="213"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="214"/>
     <cellStyle name="40% - 强调文字颜色 1 8" xfId="215"/>
     <cellStyle name="40% - 强调文字颜色 1 9" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 2 10" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 3 11" xfId="217"/>
     <cellStyle name="60% - 强调文字颜色 1 8" xfId="218"/>
-    <cellStyle name="60% - 强调文字颜色 3 11" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="220"/>
-    <cellStyle name="60% - 强调文字颜色 5 10" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 2 10" xfId="219"/>
+    <cellStyle name="60% - 强调文字颜色 5 10" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="221"/>
+    <cellStyle name="60% - 强调文字颜色 5 11" xfId="222"/>
     <cellStyle name="40% - 强调文字颜色 4 10" xfId="223"/>
-    <cellStyle name="60% - 强调文字颜色 5 11" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="225"/>
-    <cellStyle name="输出 11" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="224"/>
+    <cellStyle name="输出 11" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="226"/>
     <cellStyle name="40% - 强调文字颜色 2 7" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 2 8" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 2 9" xfId="229"/>
@@ -7396,27 +7402,27 @@
     <cellStyle name="40% - 强调文字颜色 3 7" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="236"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="238"/>
-    <cellStyle name="解释性文本 10" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="240"/>
-    <cellStyle name="解释性文本 11" xfId="241"/>
+    <cellStyle name="解释性文本 10" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="239"/>
+    <cellStyle name="解释性文本 11" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="241"/>
     <cellStyle name="40% - 强调文字颜色 4 7" xfId="242"/>
     <cellStyle name="40% - 强调文字颜色 4 8" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 4 9" xfId="244"/>
-    <cellStyle name="强调文字颜色 2 10" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 5 10" xfId="246"/>
-    <cellStyle name="60% - 强调文字颜色 6 11" xfId="247"/>
+    <cellStyle name="强调文字颜色 2 10" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 4 9" xfId="245"/>
+    <cellStyle name="60% - 强调文字颜色 6 11" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 5 10" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="250"/>
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="252"/>
-    <cellStyle name="标题 2 10" xfId="253"/>
+    <cellStyle name="标题 2 10" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 5 8" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 5 9" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 6 10" xfId="256"/>
+    <cellStyle name="适中 3" xfId="256"/>
     <cellStyle name="计算 6" xfId="257"/>
-    <cellStyle name="适中 3" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 6 10" xfId="258"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="259"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="260"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="261"/>
@@ -7424,19 +7430,19 @@
     <cellStyle name="40% - 强调文字颜色 6 7" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 6 8" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 6 9" xfId="265"/>
-    <cellStyle name="60% - 强调文字颜色 1 10" xfId="266"/>
-    <cellStyle name="汇总 5" xfId="267"/>
+    <cellStyle name="汇总 5" xfId="266"/>
+    <cellStyle name="60% - 强调文字颜色 1 10" xfId="267"/>
     <cellStyle name="60% - 强调文字颜色 2 10" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 2 8" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 2 9" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 8" xfId="271"/>
-    <cellStyle name="常规 2 2" xfId="272"/>
+    <cellStyle name="常规 2 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 8" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 9" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 4 10" xfId="274"/>
-    <cellStyle name="60% - 强调文字颜色 6 7" xfId="275"/>
+    <cellStyle name="60% - 强调文字颜色 6 7" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 4 10" xfId="275"/>
     <cellStyle name="60% - 强调文字颜色 4 8" xfId="276"/>
-    <cellStyle name="60% - 强调文字颜色 4 9" xfId="277"/>
-    <cellStyle name="检查单元格 10" xfId="278"/>
+    <cellStyle name="检查单元格 10" xfId="277"/>
+    <cellStyle name="60% - 强调文字颜色 4 9" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="280"/>
     <cellStyle name="60% - 强调文字颜色 5 4" xfId="281"/>
@@ -7451,10 +7457,10 @@
     <cellStyle name="60% - 强调文字颜色 6 4" xfId="290"/>
     <cellStyle name="60% - 强调文字颜色 6 5" xfId="291"/>
     <cellStyle name="60% - 强调文字颜色 6 6" xfId="292"/>
-    <cellStyle name="标题 1 10" xfId="293"/>
-    <cellStyle name="输出 8" xfId="294"/>
-    <cellStyle name="标题 1 11" xfId="295"/>
-    <cellStyle name="输出 9" xfId="296"/>
+    <cellStyle name="输出 8" xfId="293"/>
+    <cellStyle name="标题 1 10" xfId="294"/>
+    <cellStyle name="输出 9" xfId="295"/>
+    <cellStyle name="标题 1 11" xfId="296"/>
     <cellStyle name="标题 1 2" xfId="297"/>
     <cellStyle name="标题 1 3" xfId="298"/>
     <cellStyle name="标题 1 4" xfId="299"/>
@@ -7488,18 +7494,18 @@
     <cellStyle name="标题 4 10" xfId="327"/>
     <cellStyle name="标题 4 2" xfId="328"/>
     <cellStyle name="标题 4 3" xfId="329"/>
-    <cellStyle name="标题 4 4" xfId="330"/>
-    <cellStyle name="检查单元格 2" xfId="331"/>
-    <cellStyle name="标题 4 5" xfId="332"/>
-    <cellStyle name="检查单元格 3" xfId="333"/>
-    <cellStyle name="标题 4 6" xfId="334"/>
-    <cellStyle name="检查单元格 4" xfId="335"/>
-    <cellStyle name="标题 4 7" xfId="336"/>
-    <cellStyle name="检查单元格 5" xfId="337"/>
-    <cellStyle name="标题 4 8" xfId="338"/>
-    <cellStyle name="检查单元格 6" xfId="339"/>
-    <cellStyle name="标题 4 9" xfId="340"/>
-    <cellStyle name="检查单元格 7" xfId="341"/>
+    <cellStyle name="检查单元格 2" xfId="330"/>
+    <cellStyle name="标题 4 4" xfId="331"/>
+    <cellStyle name="检查单元格 3" xfId="332"/>
+    <cellStyle name="标题 4 5" xfId="333"/>
+    <cellStyle name="检查单元格 4" xfId="334"/>
+    <cellStyle name="标题 4 6" xfId="335"/>
+    <cellStyle name="检查单元格 5" xfId="336"/>
+    <cellStyle name="标题 4 7" xfId="337"/>
+    <cellStyle name="检查单元格 6" xfId="338"/>
+    <cellStyle name="标题 4 8" xfId="339"/>
+    <cellStyle name="检查单元格 7" xfId="340"/>
+    <cellStyle name="标题 4 9" xfId="341"/>
     <cellStyle name="标题 5" xfId="342"/>
     <cellStyle name="标题 6" xfId="343"/>
     <cellStyle name="标题 7" xfId="344"/>
@@ -7507,31 +7513,31 @@
     <cellStyle name="标题 9" xfId="346"/>
     <cellStyle name="差 10" xfId="347"/>
     <cellStyle name="差 11" xfId="348"/>
-    <cellStyle name="差 2" xfId="349"/>
-    <cellStyle name="解释性文本 5" xfId="350"/>
-    <cellStyle name="差 3" xfId="351"/>
+    <cellStyle name="解释性文本 5" xfId="349"/>
+    <cellStyle name="差 2" xfId="350"/>
+    <cellStyle name="解释性文本 6" xfId="351"/>
     <cellStyle name="计算 10" xfId="352"/>
-    <cellStyle name="解释性文本 6" xfId="353"/>
-    <cellStyle name="差 4" xfId="354"/>
+    <cellStyle name="差 3" xfId="353"/>
+    <cellStyle name="解释性文本 7" xfId="354"/>
     <cellStyle name="计算 11" xfId="355"/>
-    <cellStyle name="解释性文本 7" xfId="356"/>
-    <cellStyle name="差 5" xfId="357"/>
-    <cellStyle name="解释性文本 8" xfId="358"/>
-    <cellStyle name="常规 2" xfId="359"/>
-    <cellStyle name="好 10" xfId="360"/>
+    <cellStyle name="差 4" xfId="356"/>
+    <cellStyle name="解释性文本 8" xfId="357"/>
+    <cellStyle name="差 5" xfId="358"/>
+    <cellStyle name="好 10" xfId="359"/>
+    <cellStyle name="常规 2" xfId="360"/>
     <cellStyle name="好 7" xfId="361"/>
     <cellStyle name="好 8" xfId="362"/>
     <cellStyle name="好 9" xfId="363"/>
-    <cellStyle name="汇总 2" xfId="364"/>
-    <cellStyle name="警告文本 10" xfId="365"/>
-    <cellStyle name="汇总 3" xfId="366"/>
-    <cellStyle name="警告文本 11" xfId="367"/>
+    <cellStyle name="警告文本 10" xfId="364"/>
+    <cellStyle name="汇总 2" xfId="365"/>
+    <cellStyle name="警告文本 11" xfId="366"/>
+    <cellStyle name="汇总 3" xfId="367"/>
     <cellStyle name="汇总 4" xfId="368"/>
     <cellStyle name="汇总 7" xfId="369"/>
     <cellStyle name="汇总 8" xfId="370"/>
     <cellStyle name="汇总 9" xfId="371"/>
-    <cellStyle name="计算 9" xfId="372"/>
-    <cellStyle name="适中 6" xfId="373"/>
+    <cellStyle name="适中 6" xfId="372"/>
+    <cellStyle name="计算 9" xfId="373"/>
     <cellStyle name="检查单元格 11" xfId="374"/>
     <cellStyle name="检查单元格 8" xfId="375"/>
     <cellStyle name="检查单元格 9" xfId="376"/>
@@ -7549,8 +7555,8 @@
     <cellStyle name="链接单元格 10" xfId="388"/>
     <cellStyle name="链接单元格 11" xfId="389"/>
     <cellStyle name="链接单元格 2" xfId="390"/>
-    <cellStyle name="链接单元格 9" xfId="391"/>
-    <cellStyle name="输出 7" xfId="392"/>
+    <cellStyle name="输出 7" xfId="391"/>
+    <cellStyle name="链接单元格 9" xfId="392"/>
     <cellStyle name="强调文字颜色 1 10" xfId="393"/>
     <cellStyle name="强调文字颜色 1 11" xfId="394"/>
     <cellStyle name="强调文字颜色 1 2" xfId="395"/>
@@ -7578,18 +7584,18 @@
     <cellStyle name="强调文字颜色 4 2" xfId="417"/>
     <cellStyle name="强调文字颜色 4 3" xfId="418"/>
     <cellStyle name="强调文字颜色 4 4" xfId="419"/>
-    <cellStyle name="强调文字颜色 4 5" xfId="420"/>
-    <cellStyle name="输入 2" xfId="421"/>
-    <cellStyle name="强调文字颜色 4 6" xfId="422"/>
-    <cellStyle name="输入 3" xfId="423"/>
-    <cellStyle name="强调文字颜色 4 7" xfId="424"/>
-    <cellStyle name="输入 4" xfId="425"/>
-    <cellStyle name="强调文字颜色 4 8" xfId="426"/>
+    <cellStyle name="输入 2" xfId="420"/>
+    <cellStyle name="强调文字颜色 4 5" xfId="421"/>
+    <cellStyle name="输入 3" xfId="422"/>
+    <cellStyle name="强调文字颜色 4 6" xfId="423"/>
+    <cellStyle name="输入 4" xfId="424"/>
+    <cellStyle name="强调文字颜色 4 7" xfId="425"/>
+    <cellStyle name="输入 5" xfId="426"/>
     <cellStyle name="输入 10" xfId="427"/>
-    <cellStyle name="输入 5" xfId="428"/>
-    <cellStyle name="强调文字颜色 4 9" xfId="429"/>
+    <cellStyle name="强调文字颜色 4 8" xfId="428"/>
+    <cellStyle name="输入 6" xfId="429"/>
     <cellStyle name="输入 11" xfId="430"/>
-    <cellStyle name="输入 6" xfId="431"/>
+    <cellStyle name="强调文字颜色 4 9" xfId="431"/>
     <cellStyle name="强调文字颜色 5 10" xfId="432"/>
     <cellStyle name="强调文字颜色 5 11" xfId="433"/>
     <cellStyle name="强调文字颜色 5 2" xfId="434"/>
@@ -7622,6 +7628,11 @@
     <cellStyle name="注释 9" xfId="461"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7948,17 +7959,16 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C923"/>
+  <dimension ref="A1:C925"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A886" workbookViewId="0">
-      <selection activeCell="B923" sqref="B923"/>
+      <selection activeCell="B921" sqref="B921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -16109,6 +16119,22 @@
         <v>1592</v>
       </c>
     </row>
+    <row r="924" spans="1:2">
+      <c r="A924">
+        <v>11692</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925">
+        <v>11693</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
